--- a/Catalogo de clientes.xlsx
+++ b/Catalogo de clientes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>100</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Si el cliente existe los datos serán actualizados</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>VAVY910708LLL</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -197,6 +203,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -492,30 +501,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -523,108 +532,115 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row r="2" spans="1:16" ht="30">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4">
         <v>331040004</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
